--- a/excels/datas/Abilities.xlsx
+++ b/excels/datas/Abilities.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="142">
   <si>
     <t>##var</t>
   </si>
@@ -46,7 +46,7 @@
     <t>chance</t>
   </si>
   <si>
-    <t>effect_type</t>
+    <t>action</t>
   </si>
   <si>
     <t>conditions</t>
@@ -70,7 +70,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>EEffectType</t>
+    <t>EAbilityAction</t>
   </si>
   <si>
     <t>string</t>
@@ -91,7 +91,7 @@
     <t>本效果触发概率</t>
   </si>
   <si>
-    <t>效果类型</t>
+    <t>技能动作</t>
   </si>
   <si>
     <t>json条件</t>
@@ -101,6 +101,360 @@
   </si>
   <si>
     <t>json作用参数</t>
+  </si>
+  <si>
+    <t>OnBuy</t>
+  </si>
+  <si>
+    <t>GainGold</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{"amount":1}</t>
+  </si>
+  <si>
+    <t>买入返 1 金（经济测试）</t>
+  </si>
+  <si>
+    <t>OnSell</t>
+  </si>
+  <si>
+    <t>RollShop</t>
+  </si>
+  <si>
+    <t>{"rolls":1,"respect_freeze":true}</t>
+  </si>
+  <si>
+    <t>卖出刷新一次商店</t>
+  </si>
+  <si>
+    <t>OnEatFood</t>
+  </si>
+  <si>
+    <t>ModifyStats</t>
+  </si>
+  <si>
+    <t>{"side":"Self","scope":"Single"}</t>
+  </si>
+  <si>
+    <t>{"atk":1,"hp":1,"duration":"Permanent"}</t>
+  </si>
+  <si>
+    <t>吃食+1/+1（永久）</t>
+  </si>
+  <si>
+    <t>{"atk":3,"hp":0,"duration":"Battle"}</t>
+  </si>
+  <si>
+    <t>吃食+3攻（本战）</t>
+  </si>
+  <si>
+    <t>Dispel</t>
+  </si>
+  <si>
+    <t>{"status":"Weakness"}</t>
+  </si>
+  <si>
+    <t>吃食立刻驱散“虚弱”</t>
+  </si>
+  <si>
+    <t>OnLevelUp</t>
+  </si>
+  <si>
+    <t>SwapStats</t>
+  </si>
+  <si>
+    <t>{"side":"Self"}</t>
+  </si>
+  <si>
+    <t>{"swap":"atk_hp"}</t>
+  </si>
+  <si>
+    <t>升级交换攻/血（演示数值交换）</t>
+  </si>
+  <si>
+    <t>EndOfTurn</t>
+  </si>
+  <si>
+    <t>AddShopSlot</t>
+  </si>
+  <si>
+    <t>{"per_turn_cap":1}</t>
+  </si>
+  <si>
+    <t>{"pets":1,"foods":0,"duration":"Turns:1"}</t>
+  </si>
+  <si>
+    <t>回合末：下回合商店+1宠物格</t>
+  </si>
+  <si>
+    <t>StartOfBattle</t>
+  </si>
+  <si>
+    <t>DealDamage</t>
+  </si>
+  <si>
+    <t>{"side":"Enemy","scope":"RandomN","count":1}</t>
+  </si>
+  <si>
+    <t>{"damage":1,"armor_interaction":"Normal"}</t>
+  </si>
+  <si>
+    <t>开战随机敌人 1 点普通伤害</t>
+  </si>
+  <si>
+    <t>GiveEquipment</t>
+  </si>
+  <si>
+    <t>{"require_tag":"Support"}</t>
+  </si>
+  <si>
+    <t>{"side":"Ally","scope":"BackMost"}</t>
+  </si>
+  <si>
+    <t>{"equipment_id":6002}</t>
+  </si>
+  <si>
+    <t>仅当自身有 Support 标签时，给后排装备“蜜瓜”</t>
+  </si>
+  <si>
+    <t>OnBeforeAttack</t>
+  </si>
+  <si>
+    <t>{"atk":2,"hp":2,"duration":"Battle"}</t>
+  </si>
+  <si>
+    <t>攻前自增本战 +2/+2</t>
+  </si>
+  <si>
+    <t>OnAttack</t>
+  </si>
+  <si>
+    <t>{"side":"Enemy","scope":"AdjacentBehind","count":2}</t>
+  </si>
+  <si>
+    <t>{"damage":2,"armor_interaction":"AfterArmor"}</t>
+  </si>
+  <si>
+    <t>攻击时对后两位溅射 2（不再触发 OnHurt）</t>
+  </si>
+  <si>
+    <t>OnAfterAttack</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>{"side":"Ally","scope":"Adjacent","count":1}</t>
+  </si>
+  <si>
+    <t>{"pattern":"swap_self_with_back"}</t>
+  </si>
+  <si>
+    <t>攻后与身后友军对调</t>
+  </si>
+  <si>
+    <t>OnHurt</t>
+  </si>
+  <si>
+    <t>GiveStatus</t>
+  </si>
+  <si>
+    <t>{"per_battle_cap":1}</t>
+  </si>
+  <si>
+    <t>{"side":"Enemy","scope":"FrontMost"}</t>
+  </si>
+  <si>
+    <t>{"status":"Weakness","bonus_damage_taken":1,"duration":"Battle","stacking":"Max"}</t>
+  </si>
+  <si>
+    <t>受伤后给敌前排施加“虚弱”（战斗限 1 次）</t>
+  </si>
+  <si>
+    <t>OnFaint</t>
+  </si>
+  <si>
+    <t>Summon</t>
+  </si>
+  <si>
+    <t>{"token":"Bee","base_atk":1,"base_hp":1,"slot_policy":"IgnoreIfFull"}</t>
+  </si>
+  <si>
+    <t>倒下时召唤 1/1 蜜蜂（token=Bee）</t>
+  </si>
+  <si>
+    <t>OnKnockOut</t>
+  </si>
+  <si>
+    <t>{"hp_below_percent":50}</t>
+  </si>
+  <si>
+    <t>击杀且自身血量&lt;50%时永久 +1/+1</t>
+  </si>
+  <si>
+    <t>OnAllySummoned</t>
+  </si>
+  <si>
+    <t>{"side":"Ally","scope":"Single"}</t>
+  </si>
+  <si>
+    <t>友军被召唤：立刻给其 +2/+2</t>
+  </si>
+  <si>
+    <t>OnEnemySummoned</t>
+  </si>
+  <si>
+    <t>Snipe</t>
+  </si>
+  <si>
+    <t>{"side":"Enemy","scope":"Single"}</t>
+  </si>
+  <si>
+    <t>{"damage":2,"armor_interaction":"IgnoreGarlic"}</t>
+  </si>
+  <si>
+    <t>敌方召唤：狙击 2（忽略减伤）</t>
+  </si>
+  <si>
+    <t>OnAllyFaint</t>
+  </si>
+  <si>
+    <t>{"require_tag":"Attacker"}</t>
+  </si>
+  <si>
+    <t>{"atk":2,"hp":0,"duration":"Battle"}</t>
+  </si>
+  <si>
+    <t>仅当倒下者是 Attacker 时，自身本战 +2 攻</t>
+  </si>
+  <si>
+    <t>OnFriendAheadAttacks</t>
+  </si>
+  <si>
+    <t>CopyStats</t>
+  </si>
+  <si>
+    <t>{"ratio_atk":0.5,"ratio_hp":0,"include_temp":true}</t>
+  </si>
+  <si>
+    <t>前位友军攻击：复制其 50% 攻击</t>
+  </si>
+  <si>
+    <t>OnFriendBehindAttacks</t>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <t>{"slots":1}</t>
+  </si>
+  <si>
+    <t>后排友军攻击：把敌前排拉后 1 格</t>
+  </si>
+  <si>
+    <t>Silence</t>
+  </si>
+  <si>
+    <t>{"require_status":"shield"}</t>
+  </si>
+  <si>
+    <t>{"side":"Enemy","scope":"BackMost"}</t>
+  </si>
+  <si>
+    <t>{"duration":"Hits:1"}</t>
+  </si>
+  <si>
+    <t>仅对带护盾类（conflictGroup=shield）的敌人施加沉默</t>
+  </si>
+  <si>
+    <t>升级时驱散自身“虚弱”</t>
+  </si>
+  <si>
+    <t>CopyAbility</t>
+  </si>
+  <si>
+    <t>{"side":"Ally","scope":"FrontMost"}</t>
+  </si>
+  <si>
+    <t>{"copy_level":true}</t>
+  </si>
+  <si>
+    <t>攻前复制前排友军技能（同等级）</t>
+  </si>
+  <si>
+    <t>MultiplyTrigger</t>
+  </si>
+  <si>
+    <t>{"multiplier":2}</t>
+  </si>
+  <si>
+    <t>每回合仅放大一次召唤触发</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>攻时把敌前排推后 1 格</t>
+  </si>
+  <si>
+    <t>{"side":"Enemy","scope":"HighestStats"}</t>
+  </si>
+  <si>
+    <t>{"damage":6,"armor_interaction":"TrueDamage"}</t>
+  </si>
+  <si>
+    <t>开战对最强敌人 6 点真实伤害</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>{"side":"Ally","scope":"LowestHP"}</t>
+  </si>
+  <si>
+    <t>{"amount":3}</t>
+  </si>
+  <si>
+    <t>开战治疗当前血量最低的友军 3 点</t>
+  </si>
+  <si>
+    <t>{"status":"GarlicArmor","flat_reduction":2,"duration":"Battle","stacking":"Exclusive"}</t>
+  </si>
+  <si>
+    <t>装备“大蒜”：开战获得减伤</t>
+  </si>
+  <si>
+    <t>{"status":"Melon","layers":1,"duration":"Battle","stacking":"Exclusive"}</t>
+  </si>
+  <si>
+    <t>装备“蜜瓜”：开战获得护盾</t>
+  </si>
+  <si>
+    <t>装备“蜂蜜”：倒下召唤蜜蜂</t>
+  </si>
+  <si>
+    <t>{"side":"Enemy","scope":"AdjacentBehind","count":1}</t>
+  </si>
+  <si>
+    <t>{"damage":3,"armor_interaction":"AfterArmor"}</t>
+  </si>
+  <si>
+    <t>装备“辣椒”：攻击溅射后 1 名 3 伤</t>
+  </si>
+  <si>
+    <t>{"token":"SelfClone","inherit":{"level":true,"atk_ratio":1.0,"hp_ratio":0.0},"base_hp":1,"slot_policy":"IgnoreIfFull"}</t>
+  </si>
+  <si>
+    <t>装备“蘑菇”：倒下以 1HP 复活体返回（token=SelfClone）</t>
+  </si>
+  <si>
+    <t>{"status":"Coconut","layers":1,"duration":"Battle","stacking":"Exclusive"}</t>
+  </si>
+  <si>
+    <t>装备“椰子”：开战免疫一次伤害</t>
   </si>
 </sst>
 </file>
@@ -716,9 +1070,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1068,18 +1425,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="8.30769230769231" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="16.2307692307692" customWidth="1"/>
-    <col min="4" max="4" width="34.6153846153846" customWidth="1"/>
+    <col min="3" max="3" width="24.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="13.9423076923077" customWidth="1"/>
+    <col min="5" max="5" width="8.00961538461539" customWidth="1"/>
+    <col min="6" max="6" width="13.1346153846154" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="48.3942307692308" customWidth="1"/>
+    <col min="9" max="9" width="46.1442307692308" customWidth="1"/>
+    <col min="10" max="10" width="44.8461538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1167,6 +1530,968 @@
       </c>
       <c r="I3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="2:11">
+      <c r="B4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>1002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>1003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>1006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>1007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9">
+        <v>1004</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10">
+        <v>1005</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11">
+        <v>1011</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12">
+        <v>1012</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13">
+        <v>1013</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14">
+        <v>1014</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15">
+        <v>1015</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16">
+        <v>1021</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>1022</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18">
+        <v>1023</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <v>1031</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20">
+        <v>1032</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21">
+        <v>1033</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22">
+        <v>1034</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23">
+        <v>1035</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24">
+        <v>1041</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <v>1042</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <v>1043</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27">
+        <v>1044</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28">
+        <v>1045</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29">
+        <v>1046</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30">
+        <v>1050</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31">
+        <v>3101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32">
+        <v>3102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <v>3103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34">
+        <v>3104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35">
+        <v>3105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36">
+        <v>3106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
